--- a/Lab4/SURF Train Results.xlsx
+++ b/Lab4/SURF Train Results.xlsx
@@ -11,6 +11,161 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>apple2-090-090.png</t>
+  </si>
+  <si>
+    <t>apple2-090-112.png</t>
+  </si>
+  <si>
+    <t>apple2-090-135.png</t>
+  </si>
+  <si>
+    <t>apple2-090-158.png</t>
+  </si>
+  <si>
+    <t>apple2-090-180.png</t>
+  </si>
+  <si>
+    <t>apple2-090-202.png</t>
+  </si>
+  <si>
+    <t>apple2-090-225.png</t>
+  </si>
+  <si>
+    <t>apple2-090-248.png</t>
+  </si>
+  <si>
+    <t>apple2-090-270.png</t>
+  </si>
+  <si>
+    <t>apple2-090-292.png</t>
+  </si>
+  <si>
+    <t>apple2-090-315.png</t>
+  </si>
+  <si>
+    <t>apple2-090-338.png</t>
+  </si>
+  <si>
+    <t>apple3-000-000.png</t>
+  </si>
+  <si>
+    <t>apple3-022-000.png</t>
+  </si>
+  <si>
+    <t>apple3-022-090.png</t>
+  </si>
+  <si>
+    <t>apple3-022-180.png</t>
+  </si>
+  <si>
+    <t>apple3-022-270.png</t>
+  </si>
+  <si>
+    <t>apple3-035-045.png</t>
+  </si>
+  <si>
+    <t>apple3-035-135.png</t>
+  </si>
+  <si>
+    <t>apple3-035-225.png</t>
+  </si>
+  <si>
+    <t>apple9-022-090.png</t>
+  </si>
+  <si>
+    <t>apple9-022-180.png</t>
+  </si>
+  <si>
+    <t>apple9-022-270.png</t>
+  </si>
+  <si>
+    <t>apple9-035-045.png</t>
+  </si>
+  <si>
+    <t>apple9-035-135.png</t>
+  </si>
+  <si>
+    <t>apple9-035-225.png</t>
+  </si>
+  <si>
+    <t>apple9-035-315.png</t>
+  </si>
+  <si>
+    <t>apple9-045-000.png</t>
+  </si>
+  <si>
+    <t>apple9-045-090.png</t>
+  </si>
+  <si>
+    <t>apple9-045-180.png</t>
+  </si>
+  <si>
+    <t>car2-090-112.png</t>
+  </si>
+  <si>
+    <t>car2-090-135.png</t>
+  </si>
+  <si>
+    <t>car2-090-158.png</t>
+  </si>
+  <si>
+    <t>car2-090-180.png</t>
+  </si>
+  <si>
+    <t>car2-090-202.png</t>
+  </si>
+  <si>
+    <t>car2-090-225.png</t>
+  </si>
+  <si>
+    <t>car2-090-248.png</t>
+  </si>
+  <si>
+    <t>car2-090-270.png</t>
+  </si>
+  <si>
+    <t>car2-090-292.png</t>
+  </si>
+  <si>
+    <t>car2-090-315.png</t>
+  </si>
+  <si>
+    <t>car2-090-338.png</t>
+  </si>
+  <si>
+    <t>car3-000-000.png</t>
+  </si>
+  <si>
+    <t>car3-022-000.png</t>
+  </si>
+  <si>
+    <t>car3-022-090.png</t>
+  </si>
+  <si>
+    <t>car3-022-180.png</t>
+  </si>
+  <si>
+    <t>car3-022-270.png</t>
+  </si>
+  <si>
+    <t>car3-035-045.png</t>
+  </si>
+  <si>
+    <t>car3-035-135.png</t>
+  </si>
+  <si>
+    <t>car3-035-225.png</t>
+  </si>
+  <si>
+    <t>car3-035-315.png</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,3109 +495,3259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:T52"/>
+  <dimension ref="A3:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:20">
-      <c r="A3">
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>-2.212185609096196e-05</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.0001003223078441806</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0001161084146588109</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0002299730549566448</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.06008782982826233</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.03389554098248482</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.06373976171016693</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.03411897271871567</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.01480842567980289</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.01606897637248039</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.01824941672384739</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.01612953469157219</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.001333729713223875</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-5.271880945656449e-05</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.001333729713223875</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0006265316042117774</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.0003233719326090068</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>-0.0004738321295008063</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.001267564599402249</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.001197063946165144</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1.442670327378437e-05</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-5.404839612310752e-06</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3.995154111180454e-05</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.0002179172442993149</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.0440053828060627</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.01846935786306858</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0443953238427639</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.01887349225580692</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.02249996922910213</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.02864195592701435</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.02791525237262249</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.029312739148736</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-0.001254642382264137</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.001580898300744593</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.001254642382264137</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.001865762402303517</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.0002242093032691628</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-0.0002654386044014245</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.00033825114951469</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.001567851868458092</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>-0.003600425086915493</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.0145210875198245</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.003600425086915493</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.0145210875198245</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.02405018545687199</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.06087419018149376</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03689371794462204</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.06849788129329681</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.02903338149189949</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.03389043360948563</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.03214424476027489</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.03410707041621208</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.001185990986414254</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-0.008062431588768959</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.001261114608496428</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.008062851615250111</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.0006519941962324083</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-0.0006792386993765831</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.001425583381205797</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.001181850675493479</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>6.505513738375157e-05</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5.723466529161669e-05</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.0001816239673644304</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0001531748275738209</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.001707388903014362</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0006352803902700543</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001860798220150173</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.001131860422901809</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.07732371985912323</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.002250516787171364</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.07732371985912323</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.008867501281201839</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.000523771159350872</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.0001626978773856536</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.0005723377107642591</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.0001866615930339321</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.000243088768911548</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-0.0003091896942351013</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.00127694383263588</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.0005356954643502831</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>7.877672032918781e-05</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.0002014969213632867</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.0001783197658369318</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.0003292174660600722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.0002877330698538572</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0003554518625605851</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.001540870405733585</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.0007084336830303073</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.0007570862071588635</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.000263196969171986</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.001551785389892757</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.001035486813634634</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.000251462304731831</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7.630780601175502e-05</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.0003244896361138672</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.0001337512221653014</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-0.01492903102189302</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.01686939597129822</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.01547257881611586</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.0174083337187767</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>-4.805990465683863e-05</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>9.251951269106939e-05</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.0002219845337094739</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.0002217770379502326</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.0006330169853754342</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0003296799550298601</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.001993563724681735</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.0008998063276521862</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.0006471456144936383</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.0006323190755210817</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.001795640331692994</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.001161322230473161</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-8.195444388547912e-05</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-8.88668728293851e-06</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.0002028813760261983</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.0001089950455934741</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-0.009982537478208542</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.008719866164028645</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.01008786167949438</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.00901931244879961</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>7.318722055060789e-05</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3.480290979496203e-05</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.000239134140429087</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9.956590656656772e-05</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.003376231994479895</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0006125766667537391</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.003720794105902314</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.0009242967935279012</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.07658900320529938</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.0004655728407669812</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.07658900320529938</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.002523947507143021</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-8.023794180189725e-07</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7.458298205165192e-05</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.000144067860674113</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.000224891075049527</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.0004637946258299053</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-0.0005908997263759375</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.001347307814285159</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.0007530187722295523</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>1.51530593939242e-06</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-9.469080396229401e-05</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.0001268616761080921</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.0001017891627270728</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.0008505763253197074</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.0009672237792983651</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.001117796287871897</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.001423106878064573</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.06272279471158981</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.01445565558969975</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.06272279471158981</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.01482543535530567</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.0005778495105914772</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3.148132236674428e-05</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.0006247339188121259</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.0001831034896895289</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.0005700323381461203</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.0003183700318913907</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.001063429517671466</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.001109516364522278</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>-4.569095835904591e-05</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-9.073234832612798e-05</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.0001339271984761581</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.0001324776094406843</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02873591519892216</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.008867722935974598</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.02884825319051743</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.009454136714339256</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.03320029750466347</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.04228624701499939</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.03735815361142159</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.04228624701499939</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4.196607551421039e-05</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.003861973993480206</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.0007931774598546326</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.003893221262842417</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-3.299165837233886e-05</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-0.0009644805686548352</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.0001787732762750238</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.00120137189514935</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>-5.369149221223779e-05</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>6.273483450058848e-05</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>9.657027840148658e-05</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0001074675892596133</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.03178547695279121</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.004712252877652645</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.03182192146778107</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.004878218751400709</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01419487781822681</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.007285547442734241</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.01574044115841389</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.00879328791052103</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.0001349724043393508</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.0001263049489352852</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.001558538526296616</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.00220665498636663</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>8.350465213879943e-05</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-0.000321527972118929</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.0005313889123499393</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.0006994864670559764</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>6.831038626842201e-05</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-6.058757571736351e-05</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.0003859014832414687</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.000457288755569607</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.0001370260870316997</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.001525255269370973</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.001100039575248957</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.002056523226201534</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.02019781246781349</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.009797003120183945</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.02062960714101791</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.009797003120183945</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.003193110227584839</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.001829476095736027</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.003686769166961312</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.00185203761793673</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-0.0006677747005596757</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>9.143891657004133e-05</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.002390990499407053</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.0006851230282336473</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
         <v>0.0001761111634550616</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.0001721799926599488</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.0002247889206046239</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.0003073154366575181</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.05018750205636024</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.01422634720802307</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.05100424960255623</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.01432838570326567</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.007343979086726904</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.008429519832134247</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.01765145733952522</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.009463731199502945</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.0006577515741810203</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-0.001861987635493279</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.001647234079428017</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.001864155870862305</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-0.0007979469955898821</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.0009221606305800378</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.002211342798545957</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.001813834882341325</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>-0.0004898007609881461</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.0003409261407796293</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.0007876254385337234</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.0004914348828606308</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.03819840401411057</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.07446745783090591</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.03895389661192894</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.07522118836641312</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.01752450317144394</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.06453071534633636</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.02132760547101498</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.06499264389276505</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-0.005100828129798174</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.00429858360439539</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.005238856188952923</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.005095522850751877</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.08711840957403183</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.02058820612728596</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.08863024413585663</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.02234357409179211</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>-0.002670325804501772</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-0.002419801894575357</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.002718121744692326</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.002711730543524027</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.007279316429048777</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.03014377318322659</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.01038248836994171</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.03014377318322659</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.007150250021368265</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.03182637691497803</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.017804816365242</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.03182637691497803</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.001348321791738272</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-0.00158068910241127</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.001556938514113426</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.001690914737991989</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-0.02542940713465214</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-0.01471240445971489</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.02542940713465214</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.01528468541800976</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
         <v>-0.001059237401932478</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-7.738855492789298e-05</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.001156232785433531</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.0002054639044217765</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.0341855026781559</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0789114385843277</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.03786113113164902</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.08014032244682312</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.01589742489159107</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.08942155539989471</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.02303455956280231</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.0896281898021698</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-0.005065359175205231</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.00658423313871026</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.006934949662536383</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.006961042992770672</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.070644810795784</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.01347156148403883</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.07389251887798309</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.0198090560734272</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <v>0.002564214868471026</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.002182337921112776</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.003205858869478106</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.002250235993415117</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.02664588019251823</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0483502596616745</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.02787775173783302</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.0483502596616745</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.01707667857408524</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.0428888127207756</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.01890405640006065</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.0428888127207756</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.003766975132748485</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.008669973351061344</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.003785308450460434</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.008677467703819275</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.07571078836917877</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.01884144358336926</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.07603190094232559</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.02004481852054596</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>0.0008048790623433888</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.001959756948053837</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.002288574352860451</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.001959756948053837</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.008070663549005985</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.02011974714696407</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.01653606444597244</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.02060252800583839</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.02120323106646538</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.02191877365112305</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.0212473887950182</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.02226716279983521</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.000255878665484488</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-0.000937817501835525</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.002623897511512041</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.002056081779301167</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.01405989564955235</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-0.003679186338558793</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.02111947536468506</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.01834684796631336</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <v>-0.001619619317352772</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-0.001802552025765181</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.002461589407175779</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.00205220771022141</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.01684553176164627</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.02127992175519466</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.01712869480252266</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.02127992175519466</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.001647878903895617</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.01750604622066021</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.01716148480772972</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.02385888807475567</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.0007944690296426415</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.0009730656165629625</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.001405121409334242</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.001060913316905499</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-0.01711795851588249</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-0.008118118159472942</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.01723915711045265</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.009493273682892323</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>-0.003014615969732404</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>-0.0004745936894323677</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.003021641634404659</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.0007569758454337716</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.01088244374841452</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.02030547894537449</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.01732970587909222</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.0205551590770483</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.007799144368618727</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.009117556735873222</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.02433540485799313</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.01755961030721664</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.0008534882799722254</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.001616460271179676</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.002150313230231404</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.001633514417335391</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-0.02571806870400906</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.003071164479479194</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.02571806870400906</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.00740686384961009</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
         <v>-0.002568439114838839</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>-0.0001817815937101841</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.002568439114838839</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.001178362290374935</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.00108261255081743</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.01134231127798557</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.01015729643404484</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.01247702445834875</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.007077938877046108</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-0.002893298864364624</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.01794131100177765</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.00786666851490736</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.003140139626339078</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.0005811100709252059</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.003140139626339078</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.0006105933571234345</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-0.03198438882827759</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-0.01034441031515598</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.03198438882827759</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.01519985776394606</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
         <v>-0.001187624293379486</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>-0.0007546249544247985</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.001287422142922878</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.001150355092249811</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.02044655941426754</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.009392371401190758</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.02044655941426754</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.009963314048945904</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.005342884920537472</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.001197590143419802</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.0272221639752388</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.004778337199240923</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-0.002387236105278134</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.002809145022183657</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.003978241700679064</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.004078931640833616</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-0.01223722472786903</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-0.002909452887251973</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.01223722472786903</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.008928668685257435</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>-0.0007463253568857908</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.0006754006026312709</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.001056927256286144</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.001111597288399935</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.001466365996748209</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0004452410794328898</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.006805692799389362</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.005189968273043633</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.005360320210456848</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.0127169331535697</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.01899217441678047</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.01273672934621572</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-0.001026209094561636</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.002205949742347002</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.0025778419803828</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.002205949742347002</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-0.00620739720761776</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-0.003478583181276917</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.008473910391330719</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.01113568618893623</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
         <v>-0.00162640621419996</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.001570789492689073</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.00162640621419996</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.001570789492689073</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.02973601222038269</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.002848565811291337</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.03889545425772667</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.01770411990582943</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.03998174518346786</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.005517682060599327</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.0460948646068573</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.01220560260117054</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.0008647037902846932</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-0.001235022675246</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.0008844448602758348</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.001251554698683321</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-0.005984386429190636</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.001150010270066559</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.00659014331176877</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.002488187281414866</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
         <v>-0.001591104897670448</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.0001809327368391678</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.00159647932741791</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.002207859884947538</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.03186021000146866</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0004112890164833516</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.03854881972074509</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.02189613506197929</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.02602622658014297</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.02929182909429073</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.02903838455677032</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.03171885013580322</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.002039760816842318</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.001232268987223506</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.002039760816842318</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.001279958407394588</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-0.01320656482130289</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-0.01188218407332897</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.01509582716971636</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.01781549863517284</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
         <v>0.002130051609128714</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>-0.0003555138828232884</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.002384261228144169</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.001405610120855272</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-5.467512892209925e-05</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.008128169924020767</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.009785033762454987</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.008148374035954475</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.009279492311179638</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.02140948548913002</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.02419078163802624</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.02180211432278156</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-0.001969968434423208</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.002798387547954917</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.002795666921883821</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.002798387547954917</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.003965587820857763</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.001345886033959687</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.01685786806046963</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.008003020659089088</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
         <v>-0.0002324299130123109</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.004328838083893061</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.001083446200937033</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.004328838083893061</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.003481644438579679</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.02711624652147293</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.01217771135270596</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.02711624652147293</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.005436928942799568</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.02986170165240765</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.008514801040291786</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.02986170165240765</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.003545070299878716</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.007271424867212772</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.003545601852238178</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.007271424867212772</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.0025210315361619</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-0.0005491192569024861</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.004878522828221321</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.006240514572709799</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
         <v>-0.001706069684587419</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.0005709356046281755</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.001882885349914432</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.0007162333931773901</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.001012282795272768</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.01131276041269302</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.007739137392491102</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.01313945930451155</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.006015186198055744</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.0010942512890324</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.01548313163220882</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.01540724653750658</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.001614862936548889</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.001128453412093222</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.00231377431191504</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.00188458536285907</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-0.01481225900352001</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-0.02660478837788105</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.01510850246995687</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.0273421686142683</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
         <v>-0.0001185815708595328</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.000291567703243345</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.001463534077629447</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.001472335425205529</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-0.01834316365420818</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.001236962038092315</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.03280916437506676</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.01294757332652807</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0190030075609684</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.0001803561754059047</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.05621974170207977</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.01497368700802326</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.000265925977146253</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.00120784598402679</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.002213153522461653</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.001424560090526938</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-0.00777672091498971</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-0.0009721561218611896</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.008200926706194878</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.005429825745522976</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
         <v>0.00267231254838407</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.005847026128321886</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.002984966151416302</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.005853969138115644</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-0.003621684852987528</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.03861016780138016</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.01365629676729441</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.03861016780138016</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.01031841803342104</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.03990840539336205</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.02503449097275734</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.04003232717514038</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.0003710057062562555</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.00774305360391736</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.001362057868391275</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.007746181916445494</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.003111975500360131</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.01439474709331989</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.00762046966701746</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.01500193309038877</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
         <v>-0.0002781512448564172</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.01256312988698483</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.0008683592895977199</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.01260712649673223</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-0.003468208247795701</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.06708011031150818</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.008177393116056919</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.0671684592962265</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.006216905079782009</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.06064090132713318</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.00685283774510026</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.0607333779335022</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-0.0008259730529971421</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.00182499922811985</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.0009509745286777616</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.001888112863525748</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.001026216661557555</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.009345476515591145</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.00648649875074625</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.01403447054326534</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>-0.000196064604097046</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>-3.013722198375035e-05</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.0003140956105198711</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.0002021561813307926</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.01323588285595179</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.005790569353848696</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.02129877917468548</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.01009149663150311</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.01938810758292675</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.005045053083449602</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.02089868485927582</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.006503691896796227</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-0.009544793516397476</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-0.003979714121669531</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.013258489780128</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.005109107121825218</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-0.0003213672898709774</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-0.0009850384667515755</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.00248866225592792</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.00159909320063889</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34">
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
         <v>-0.001746014109812677</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>-0.002192011335864663</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.002337542828172445</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.003548777429386973</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.006302622612565756</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.0003714501799549907</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.04335503652691841</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.02740989811718464</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.01072601322084665</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.0247602853924036</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.03721830621361732</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.03693323209881783</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.006559200584888458</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-0.001027178135700524</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.006978490389883518</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.001333852647803724</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-0.0289705153554678</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-0.02993097528815269</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.03411107137799263</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.03481130674481392</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35">
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
         <v>0.0009695366607047617</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>-0.001479678903706372</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.002676001284271479</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.0035714206751436</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.0118448194116354</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.01207710057497025</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.02287668734788895</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.02966368198394775</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.01052707526832819</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.00686311861500144</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.02222726307809353</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.05354952439665794</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-0.002263681963086128</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.001109241391532123</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.005597516894340515</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.004572451114654541</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-0.03425931558012962</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.03270716592669487</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.03535894677042961</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.03603449836373329</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36">
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
         <v>-0.002009828807786107</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>-0.005075404886156321</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.00360203511081636</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.005168603733181953</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.003654307220131159</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.008495010435581207</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.01539724040776491</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.0163826085627079</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.02533534914255142</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.008731496520340443</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.02848424576222897</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.009128094650804996</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2.681083606148604e-05</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2.875707650673576e-05</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.0001785744680091739</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.0001547738502267748</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.02529155276715755</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>-0.005810356698930264</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.04686219245195389</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.04997237399220467</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37">
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
         <v>0.0001526746200397611</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>6.040761945769191e-05</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.0003154907608404756</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.0002041112602455541</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.008891921490430832</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.003961435053497553</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.01184871047735214</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.01076756976544857</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.01567338779568672</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-0.02587050944566727</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.03838572651147842</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.0317375548183918</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-0.0005891772452741861</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>-0.003221123246476054</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.004747457802295685</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.004921496380120516</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.0001262044097529724</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>-0.004983119666576385</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.006637294311076403</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.005917042959481478</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38">
+    <row r="38" spans="1:21">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
         <v>-0.003471441101282835</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.0004022362700197846</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.003653388004750013</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.0004951490554958582</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.04318022355437279</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.01209768373519182</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.05645905807614326</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.0143795209005475</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.05888267606496811</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-0.001057188375853002</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.05947012454271317</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.002579445485025644</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-7.087908306857571e-05</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.0001664629817241803</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.0002624418411869556</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.0003219203208573163</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>-0.01558547001332045</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.001806222135201097</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.02931310050189495</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.004532421007752419</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39">
+    <row r="39" spans="1:21">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>5.653686093864962e-05</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.0003601006756071001</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.0002900495892390609</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.0003896777925547212</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.02937671542167664</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.001081808935850859</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.0319034717977047</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.006810970138758421</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.02222960256040096</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.001071399077773094</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.03493346646428108</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.01305146235972643</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>-0.006818943191319704</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.0039431257173419</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.008022232912480831</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.00469261035323143</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>-0.0005506324232555926</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>-0.0003408128104638308</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.00182962347753346</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.001768882852047682</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40">
+    <row r="40" spans="1:21">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
         <v>-0.003554939059540629</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.001065665739588439</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.004425938706845045</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.001378482324071229</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-0.01228584162890911</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.0004804472846444696</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.04159442707896233</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.01329119503498077</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.05842369049787521</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-0.01033297181129456</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>0.05926163122057915</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.01129544712603092</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>-4.176035872660577e-05</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>-5.817055716761388e-05</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.0005160198779776692</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0.0004321677843108773</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>-0.04394407942891121</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.0142081119120121</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.05470514670014381</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>0.01698295399546623</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41">
+    <row r="41" spans="1:21">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
         <v>-0.004750644322484732</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.0002949649933725595</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.006729887798428535</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.001020906027406454</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.003436197526752949</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-0.001165542984381318</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.04861266538500786</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.01418112218379974</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.04753782972693443</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-0.01064751762896776</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>0.04921996220946312</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.01187702640891075</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>-0.0001430534466635436</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.0001374495041090995</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.0003056658606510609</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>0.0003816811949945986</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>-0.04248503223061562</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>0.006203627679497004</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>0.06338021904230118</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>0.01933693513274193</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
+    <row r="42" spans="1:21">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>-0.005070163868367672</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>-0.002103449078276753</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.006180269178003073</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.002950017573311925</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.01870804093778133</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.009583673439919949</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.03726926818490028</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.02615224756300449</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-0.02502198703587055</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.02573579177260399</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.03332164883613586</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.04453587159514427</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.007675725966691971</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.0009016786352731287</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>0.007929905317723751</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>0.001653731102123857</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>-0.01117717940360308</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>-0.02208803221583366</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>0.02294180542230606</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>0.02252776175737381</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
+    <row r="43" spans="1:21">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
         <v>-0.002806162927299738</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>-0.004974206443876028</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.005136517807841301</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.006348943803459406</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.002658131066709757</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-0.05785354599356651</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.01536950282752514</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.05850619077682495</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-0.002842753427103162</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-0.003454872407019138</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>0.05891754850745201</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.00507374620065093</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>-0.0004719594726338983</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>7.724089664407074e-05</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.000516261497978121</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>0.0001842899946495891</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>-0.002665389096364379</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.006965070962905884</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>0.05165056139230728</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>0.03264504671096802</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
+    <row r="44" spans="1:21">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
         <v>-0.001564914011396468</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>-0.001704599359072745</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.001612539635971189</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.00180088437628001</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.031092194840312</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.008646443486213684</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.05264231562614441</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.01337674912065268</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-0.0007035607704892755</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.002419076161459088</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>0.02361663058400154</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.003944114781916142</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.005176499020308256</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>0.0009599836193956435</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>0.007876096293330193</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>0.001588944462127984</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>-0.01152668241411448</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>-0.01053214631974697</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>0.01278582029044628</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>0.01077773701399565</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45">
+    <row r="45" spans="1:21">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
         <v>-0.000929356727283448</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>-9.839382255449891e-05</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.001244549290277064</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.0007358059519901872</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-0.009046237915754318</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.001618440845049918</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.05286319926381111</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.01538061164319515</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.001890675514005125</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.009216461330652237</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.0713479295372963</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.01380611956119537</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>-0.002591437660157681</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>8.45168178784661e-05</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.003195167984813452</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>0.001518033561296761</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>-0.003402173053473234</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>0.003460461273789406</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>0.005720449145883322</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>0.006782277952879667</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46">
+    <row r="46" spans="1:21">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
         <v>0.0001655115484027192</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>-0.0006355647929012775</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.0007020661141723394</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.001494144555181265</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.003141473513096571</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-0.00663291709497571</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.004075875040143728</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.006809612736105919</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.005036997143179178</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-0.01079469919204712</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>0.005036997143179178</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.01079469919204712</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.0003945479402318597</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>-0.0008304951479658484</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0.0004159427480772138</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>0.0008372762822546065</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>-0.004288287367671728</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>-0.01299229729920626</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>0.01330380514264107</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>0.02686184085905552</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47">
+    <row r="47" spans="1:21">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
         <v>-0.0006740902317687869</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>-9.309806046076119e-06</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.001543619902804494</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.0004504267126321793</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-0.01056156400591135</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-0.007385634817183018</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.01270889118313789</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.01045034360140562</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.02927309833467007</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.0009016477270051837</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.03917301446199417</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>0.01065524388104677</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-0.001437587547115982</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.001517038326710463</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.005383984185755253</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0.001517038326710463</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>-0.001236078678630292</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>0.002513213083148003</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>0.00475727953016758</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>0.006641140207648277</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48">
+    <row r="48" spans="1:21">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
         <v>0.0007871470297686756</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>-9.852912626229227e-05</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.0009574921568855643</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>9.852912626229227e-05</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-0.001636980567127466</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.00074799481080845</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.00203692982904613</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.001281637232750654</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.001733570592477918</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-0.0009736702777445316</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>0.002511156722903252</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>0.001270808978006244</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>-4.676468597608618e-05</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>-0.000560526386834681</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.000116609655378852</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>0.000560526386834681</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>0.001733135664835572</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>0.0007962966337800026</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>0.002007629489526153</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>0.002968560671433806</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49">
+    <row r="49" spans="1:21">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
         <v>-0.0007299417047761381</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>-0.001349574769847095</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.0007456584717147052</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.001352584105916321</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-0.003666850505396724</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.0008332111174240708</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.005825555883347988</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.01390974316745996</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.02521070279181004</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-0.0001013649380183779</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>0.02598433941602707</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.0370669923722744</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>-0.001627962104976177</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.006532034371048212</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.002289973665028811</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>0.006629856768995523</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>-0.01457761880010366</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>-0.02217298932373524</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>0.0170673094689846</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>0.02909007854759693</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50">
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
         <v>0.0007018436444923282</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.00507531501352787</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.002237502485513687</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.008035157807171345</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.004377093631774187</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-0.01450990047305822</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.01120243407785892</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.03163531050086021</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.007716989610344172</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-0.02586270309984684</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>0.008066970854997635</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.0261553768068552</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.000513860082719475</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>-0.0002109066990669817</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.0006617711624130607</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>0.0007046744576655328</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>-0.01495569292455912</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>-0.01520982664078474</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>0.02445869520306587</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>0.021623644977808</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51">
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
         <v>0.0001791645772755146</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>-0.0001261426223209128</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.0003211899020243436</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.0002175872941734269</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.001517410739324987</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>-0.001935117063112557</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.005550499074161053</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.003209562273696065</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-7.175152859417722e-05</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.004339749459177256</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>0.003765907138586044</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>0.005881282035261393</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.0004203870485071093</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.0008329165284521878</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.0005316346068866551</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>0.001036883448250592</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>0.002629157854244113</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0.001561281271278858</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>0.002862901659682393</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>0.002699432894587517</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52">
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
         <v>-7.959834329085425e-05</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>0.0001442787033738568</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.0003039065632037818</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.000345222681062296</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.0003701806126628071</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.00286484113894403</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.003777806647121906</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.003547073574736714</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.0003974552382715046</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-0.0003394797677174211</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>0.004602812696248293</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.003199243685230613</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>-0.0004437001189216971</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>-0.0001713636302156374</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.0005462573608383536</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>0.0003219644713681191</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>0.001599257462657988</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>-0.0009629559353925288</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>0.002495090942829847</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>0.003094078740105033</v>
       </c>
     </row>
